--- a/input/test-0002.xlsx
+++ b/input/test-0002.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="109890" yWindow="0" windowWidth="19500" windowHeight="7950" tabRatio="897" activeTab="4"/>
+    <workbookView xWindow="110880" yWindow="0" windowWidth="19500" windowHeight="7950" tabRatio="897" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="constant" sheetId="6" r:id="rId1"/>
@@ -769,6 +769,24 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
@@ -797,24 +815,6 @@
       <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1767,11 +1767,11 @@
   </sheetPr>
   <dimension ref="A1:D48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="5" topLeftCell="B39" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="C53" sqref="C53"/>
+      <selection pane="bottomRight" activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1790,10 +1790,10 @@
       <c r="B1" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="39" t="s">
+      <c r="C1" s="45" t="s">
         <v>78</v>
       </c>
-      <c r="D1" s="39"/>
+      <c r="D1" s="45"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
@@ -1802,10 +1802,10 @@
       <c r="B2" s="26">
         <v>6</v>
       </c>
-      <c r="C2" s="40" t="s">
+      <c r="C2" s="46" t="s">
         <v>77</v>
       </c>
-      <c r="D2" s="40"/>
+      <c r="D2" s="46"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="26" t="s">
@@ -1814,8 +1814,8 @@
       <c r="B3" s="26">
         <v>1</v>
       </c>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C4" s="1"/>
@@ -1836,11 +1836,11 @@
     </row>
     <row r="6" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A6" s="29"/>
-      <c r="B6" s="41" t="s">
+      <c r="B6" s="47" t="s">
         <v>80</v>
       </c>
-      <c r="C6" s="42"/>
-      <c r="D6" s="43"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="49"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="30">
@@ -1990,11 +1990,11 @@
     </row>
     <row r="17" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A17" s="28"/>
-      <c r="B17" s="44" t="s">
+      <c r="B17" s="50" t="s">
         <v>101</v>
       </c>
-      <c r="C17" s="44"/>
-      <c r="D17" s="44"/>
+      <c r="C17" s="50"/>
+      <c r="D17" s="50"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="27">
@@ -2009,11 +2009,11 @@
     </row>
     <row r="19" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A19" s="24"/>
-      <c r="B19" s="45" t="s">
+      <c r="B19" s="51" t="s">
         <v>66</v>
       </c>
-      <c r="C19" s="46"/>
-      <c r="D19" s="47"/>
+      <c r="C19" s="52"/>
+      <c r="D19" s="53"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="25">
@@ -2062,19 +2062,19 @@
     </row>
     <row r="23" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A23" s="22"/>
-      <c r="B23" s="38" t="s">
+      <c r="B23" s="44" t="s">
         <v>60</v>
       </c>
-      <c r="C23" s="38"/>
-      <c r="D23" s="38"/>
+      <c r="C23" s="44"/>
+      <c r="D23" s="44"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="22"/>
-      <c r="B24" s="48" t="s">
+      <c r="B24" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="C24" s="49"/>
-      <c r="D24" s="50"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="40"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="23">
@@ -2108,11 +2108,11 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="17"/>
-      <c r="B27" s="51" t="s">
+      <c r="B27" s="41" t="s">
         <v>73</v>
       </c>
-      <c r="C27" s="52"/>
-      <c r="D27" s="53"/>
+      <c r="C27" s="42"/>
+      <c r="D27" s="43"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="7">
@@ -2129,11 +2129,11 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="17"/>
-      <c r="B29" s="51" t="s">
+      <c r="B29" s="41" t="s">
         <v>74</v>
       </c>
-      <c r="C29" s="52"/>
-      <c r="D29" s="53"/>
+      <c r="C29" s="42"/>
+      <c r="D29" s="43"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="7">
@@ -2148,7 +2148,7 @@
       </c>
       <c r="D30" s="14" t="str">
         <f ca="1">"Subject " &amp; TEXT(TODAY(), "yyyy/mm/dd")</f>
-        <v>Subject 2018/11/02</v>
+        <v>Subject 2018/11/05</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
@@ -2194,7 +2194,7 @@
       </c>
       <c r="D33" s="14" t="str">
         <f ca="1">"Delivery location " &amp; TEXT(TODAY(), "yyyy/mm/dd")</f>
-        <v>Delivery location 2018/11/02</v>
+        <v>Delivery location 2018/11/05</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
@@ -2210,7 +2210,7 @@
       </c>
       <c r="D34" s="14" t="str">
         <f ca="1">TEXT(TODAY(), "yyyy/mm/dd")</f>
-        <v>2018/11/02</v>
+        <v>2018/11/05</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
@@ -2299,11 +2299,11 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="17"/>
-      <c r="B41" s="51" t="s">
+      <c r="B41" s="41" t="s">
         <v>75</v>
       </c>
-      <c r="C41" s="52"/>
-      <c r="D41" s="53"/>
+      <c r="C41" s="42"/>
+      <c r="D41" s="43"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="7">
@@ -2318,19 +2318,19 @@
     </row>
     <row r="43" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A43" s="22"/>
-      <c r="B43" s="38" t="s">
+      <c r="B43" s="44" t="s">
         <v>61</v>
       </c>
-      <c r="C43" s="38"/>
-      <c r="D43" s="38"/>
+      <c r="C43" s="44"/>
+      <c r="D43" s="44"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="22"/>
-      <c r="B44" s="48" t="s">
+      <c r="B44" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="C44" s="49"/>
-      <c r="D44" s="50"/>
+      <c r="C44" s="39"/>
+      <c r="D44" s="40"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="23">
@@ -2364,11 +2364,11 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="17"/>
-      <c r="B47" s="51" t="s">
+      <c r="B47" s="41" t="s">
         <v>71</v>
       </c>
-      <c r="C47" s="52"/>
-      <c r="D47" s="53"/>
+      <c r="C47" s="42"/>
+      <c r="D47" s="43"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="7">
@@ -2410,12 +2410,12 @@
   </sheetPr>
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C29" sqref="C29"/>
       <selection pane="topRight" activeCell="C29" sqref="C29"/>
       <selection pane="bottomLeft" activeCell="C29" sqref="C29"/>
-      <selection pane="bottomRight" activeCell="C14" sqref="C14"/>
+      <selection pane="bottomRight" activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
